--- a/создание карточки XLS/WB_создание карточки XLS_test.xlsx
+++ b/создание карточки XLS/WB_создание карточки XLS_test.xlsx
@@ -76,7 +76,36 @@
     <t xml:space="preserve">Термонаклейка для одежды: Девушка волосы облако Тест</t>
   </si>
   <si>
-    <t xml:space="preserve">OZNТест</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OZN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">TEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">164077</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Полимерный материал</t>
@@ -193,7 +222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +243,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,8 +255,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -333,7 +366,7 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,16 +447,16 @@
       <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <v>285</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -435,8 +468,9 @@
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="I3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -444,8 +478,8 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="I4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -453,8 +487,8 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="I5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -462,8 +496,8 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="I6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -471,8 +505,8 @@
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="I7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -480,8 +514,8 @@
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -489,8 +523,8 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="I9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -498,8 +532,8 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="I10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
@@ -507,8 +541,8 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="I11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -516,8 +550,8 @@
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -525,8 +559,8 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="I13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -534,8 +568,8 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="I14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
@@ -543,8 +577,8 @@
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="I15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -552,8 +586,8 @@
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -561,8 +595,8 @@
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="I17" s="4"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -570,8 +604,8 @@
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="I18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
@@ -579,8 +613,8 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="I19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -588,8 +622,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="I20" s="4"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
@@ -597,8 +631,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="I21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
@@ -606,8 +640,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="I22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
@@ -615,8 +649,8 @@
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="I23" s="4"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
@@ -624,8 +658,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="I24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
@@ -633,8 +667,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="I25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
@@ -642,8 +676,8 @@
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="I26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
@@ -651,8 +685,8 @@
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="I27" s="4"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
@@ -660,8 +694,8 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="I28" s="4"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
@@ -669,8 +703,8 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="I29" s="4"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
@@ -678,8 +712,8 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="I30" s="4"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
@@ -687,8 +721,8 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="I31" s="4"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
@@ -696,8 +730,8 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="I32" s="4"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
@@ -705,17 +739,17 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="I33" s="4"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
       <c r="I34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
@@ -723,17 +757,17 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="I35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
       <c r="I36" s="4"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
@@ -741,71 +775,71 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="I37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2"/>
       <c r="I38" s="4"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2"/>
       <c r="I39" s="4"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2"/>
       <c r="I40" s="4"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2"/>
       <c r="I41" s="4"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2"/>
       <c r="I42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
       <c r="I43" s="4"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2"/>
       <c r="I44" s="4"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
@@ -813,47 +847,47 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="I45" s="4"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2"/>
       <c r="I46" s="4"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
       <c r="I47" s="4"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
       <c r="I48" s="4"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
       <c r="I49" s="4"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K50" s="5"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
